--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/5.DoiBH/DM221020_DLTruc.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/5.DoiBH/DM221020_DLTruc.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$22</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -302,7 +302,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -405,6 +405,27 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -415,30 +436,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -798,10 +795,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -821,77 +818,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="48"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="43" t="s">
+      <c r="A1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="42" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="42" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="4" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="44" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
     </row>
     <row r="5" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
@@ -899,11 +896,11 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -912,11 +909,11 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="8"/>
@@ -925,11 +922,11 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -941,11 +938,11 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -989,79 +986,77 @@
       <c r="A12" s="35">
         <v>1</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="49"/>
-    </row>
-    <row r="13" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35">
-        <v>2</v>
-      </c>
-      <c r="B13" s="32" t="s">
+      <c r="B12" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C12" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32" t="s">
+      <c r="D12" s="32"/>
+      <c r="E12" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="33" t="s">
+      <c r="F12" s="37"/>
+      <c r="G12" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H12" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I12" s="34" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+    </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16"/>
+      <c r="D14" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D15" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="48"/>
+      <c r="G15" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="47"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="40"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
@@ -1097,49 +1092,46 @@
       <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
+      <c r="C20" s="30"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C21" s="30"/>
-      <c r="F21" s="30"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="41" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41" t="s">
+      <c r="D21" s="48"/>
+      <c r="E21" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="31" t="s">
+      <c r="F21" s="48"/>
+      <c r="G21" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="41" t="s">
+      <c r="H21" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-    </row>
-    <row r="64" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+    </row>
+    <row r="63" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
@@ -1151,14 +1143,6 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A1:C4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C22:D22"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="74" orientation="landscape" r:id="rId1"/>
